--- a/motmos_zd/Справочники/Условия башмаков.xlsx
+++ b/motmos_zd/Справочники/Условия башмаков.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Номер пути</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>4a</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +731,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -741,7 +744,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -754,7 +757,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -767,7 +770,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -780,7 +783,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -806,7 +809,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -819,7 +822,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -832,7 +835,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -845,7 +848,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -858,7 +861,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -869,26 +872,52 @@
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E24"/>
+  <autoFilter ref="A1:E26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
